--- a/Yoga_1d_with_Yoga-82/evaluation1d with yoga-82 dataset.xlsx
+++ b/Yoga_1d_with_Yoga-82/evaluation1d with yoga-82 dataset.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="yg-82" sheetId="1" r:id="rId1"/>
     <sheet name="yg-20_6" sheetId="5" r:id="rId2"/>
     <sheet name="yg82-0.73-0.26" sheetId="17" r:id="rId3"/>
-    <sheet name="FCNN1D-4" sheetId="14" r:id="rId4"/>
+    <sheet name="FNN1D-4" sheetId="14" r:id="rId4"/>
     <sheet name="Conv1D-1-3" sheetId="15" r:id="rId5"/>
-    <sheet name="fcnn1d-82" sheetId="2" r:id="rId6"/>
+    <sheet name="fnn1d-82" sheetId="2" r:id="rId6"/>
     <sheet name="conv1d-82" sheetId="3" r:id="rId7"/>
-    <sheet name="fcnn1d-20" sheetId="7" r:id="rId8"/>
+    <sheet name="fnn1d-20" sheetId="7" r:id="rId8"/>
     <sheet name="conv1d-20" sheetId="8" r:id="rId9"/>
-    <sheet name="fcnn1d-6" sheetId="9" r:id="rId10"/>
+    <sheet name="fnn1d-6" sheetId="9" r:id="rId10"/>
     <sheet name="conv1d-6" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -4622,7 +4622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5516,11 +5516,11 @@
         <v>183</v>
       </c>
       <c r="K4" s="4">
-        <f>ROUND(0.85*I4,1)</f>
+        <f t="shared" ref="K4:K9" si="0">ROUND(0.85*I4,1)</f>
         <v>620.5</v>
       </c>
       <c r="L4" s="4">
-        <f>ROUND(0.15*I4,1)</f>
+        <f t="shared" ref="L4:L9" si="1">ROUND(0.15*I4,1)</f>
         <v>109.5</v>
       </c>
     </row>
@@ -5535,11 +5535,11 @@
         <v>56</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E23" si="0">ROUND(0.85*C5,1)</f>
+        <f t="shared" ref="E5:E23" si="2">ROUND(0.85*C5,1)</f>
         <v>184.5</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F23" si="1">ROUND(0.15*C5,1)</f>
+        <f t="shared" ref="F5:F23" si="3">ROUND(0.15*C5,1)</f>
         <v>32.6</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -5552,11 +5552,11 @@
         <v>246</v>
       </c>
       <c r="K5" s="4">
-        <f>ROUND(0.85*I5,1)</f>
+        <f t="shared" si="0"/>
         <v>867</v>
       </c>
       <c r="L5" s="4">
-        <f>ROUND(0.15*I5,1)</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
@@ -5571,11 +5571,11 @@
         <v>74</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>274.60000000000002</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48.5</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -5588,11 +5588,11 @@
         <v>594</v>
       </c>
       <c r="K6" s="4">
-        <f>ROUND(0.85*I6,1)</f>
+        <f t="shared" si="0"/>
         <v>2063.8000000000002</v>
       </c>
       <c r="L6" s="4">
-        <f>ROUND(0.15*I6,1)</f>
+        <f t="shared" si="1"/>
         <v>364.2</v>
       </c>
     </row>
@@ -5607,11 +5607,11 @@
         <v>172</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>592.5</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104.6</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -5624,11 +5624,11 @@
         <v>546</v>
       </c>
       <c r="K7" s="4">
-        <f>ROUND(0.85*I7,1)</f>
+        <f t="shared" si="0"/>
         <v>1863.2</v>
       </c>
       <c r="L7" s="4">
-        <f>ROUND(0.15*I7,1)</f>
+        <f t="shared" si="1"/>
         <v>328.8</v>
       </c>
     </row>
@@ -5643,11 +5643,11 @@
         <v>227</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>782.9</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>138.19999999999999</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -5660,11 +5660,11 @@
         <v>796</v>
       </c>
       <c r="K8" s="4">
-        <f>ROUND(0.85*I8,1)</f>
+        <f t="shared" si="0"/>
         <v>2823.7</v>
       </c>
       <c r="L8" s="4">
-        <f>ROUND(0.15*I8,1)</f>
+        <f t="shared" si="1"/>
         <v>498.3</v>
       </c>
     </row>
@@ -5679,11 +5679,11 @@
         <v>77</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>257.60000000000002</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -5696,11 +5696,11 @@
         <v>373</v>
       </c>
       <c r="K9" s="4">
-        <f>ROUND(0.85*I9,1)</f>
+        <f t="shared" si="0"/>
         <v>1297.0999999999999</v>
       </c>
       <c r="L9" s="4">
-        <f>ROUND(0.15*I9,1)</f>
+        <f t="shared" si="1"/>
         <v>228.9</v>
       </c>
     </row>
@@ -5715,11 +5715,11 @@
         <v>55</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>199.8</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.299999999999997</v>
       </c>
     </row>
@@ -5734,11 +5734,11 @@
         <v>235</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>823.7</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145.4</v>
       </c>
     </row>
@@ -5753,11 +5753,11 @@
         <v>105</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>380.8</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67.2</v>
       </c>
     </row>
@@ -5772,11 +5772,11 @@
         <v>147</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>487.1</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
@@ -5791,11 +5791,11 @@
         <v>157</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>520.20000000000005</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91.8</v>
       </c>
     </row>
@@ -5810,11 +5810,11 @@
         <v>69</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>217.6</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38.4</v>
       </c>
     </row>
@@ -5829,11 +5829,11 @@
         <v>68</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>257.60000000000002</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
     </row>
@@ -5848,11 +5848,11 @@
         <v>173</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112.1</v>
       </c>
     </row>
@@ -5867,11 +5867,11 @@
         <v>166</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>608.6</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107.4</v>
       </c>
     </row>
@@ -5886,11 +5886,11 @@
         <v>329</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1113.5</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>196.5</v>
       </c>
     </row>
@@ -5905,11 +5905,11 @@
         <v>128</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>466.7</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82.4</v>
       </c>
     </row>
@@ -5924,11 +5924,11 @@
         <v>69</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>242.3</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.8</v>
       </c>
     </row>
@@ -5943,11 +5943,11 @@
         <v>85</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>301.8</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.3</v>
       </c>
     </row>
@@ -5962,11 +5962,11 @@
         <v>219</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>753.1</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>132.9</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -6031,7 +6031,7 @@
         <v>15239</v>
       </c>
       <c r="J2" s="18">
-        <f t="shared" ref="I2:J2" si="0">SUM(E3:E84)</f>
+        <f t="shared" ref="J2" si="0">SUM(E3:E84)</f>
         <v>5302</v>
       </c>
     </row>

--- a/Yoga_1d_with_Yoga-82/evaluation1d with yoga-82 dataset.xlsx
+++ b/Yoga_1d_with_Yoga-82/evaluation1d with yoga-82 dataset.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="yg-82" sheetId="1" r:id="rId1"/>
     <sheet name="yg-20_6" sheetId="5" r:id="rId2"/>
-    <sheet name="yg82-0.73-0.26" sheetId="17" r:id="rId3"/>
+    <sheet name="yg82-0.74-0.26" sheetId="17" r:id="rId3"/>
     <sheet name="FNN1D-4" sheetId="14" r:id="rId4"/>
     <sheet name="Conv1D-1-3" sheetId="15" r:id="rId5"/>
     <sheet name="fnn1d-82" sheetId="2" r:id="rId6"/>
@@ -466,12 +466,6 @@
     <t>Yg-6</t>
   </si>
   <si>
-    <t>0.73 0.26</t>
-  </si>
-  <si>
-    <t>Train set 0.73</t>
-  </si>
-  <si>
     <t>Test set 0.26</t>
   </si>
   <si>
@@ -488,6 +482,12 @@
   </si>
   <si>
     <t>Khung xương-6</t>
+  </si>
+  <si>
+    <t>Train set 0.74</t>
+  </si>
+  <si>
+    <t>0.74 0.26</t>
   </si>
 </sst>
 </file>
@@ -5450,10 +5450,10 @@
   <sheetData>
     <row r="2" spans="2:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="51" thickBot="1" x14ac:dyDescent="0.35">
@@ -5980,7 +5980,7 @@
   <dimension ref="B1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6000,10 +6000,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -6014,13 +6014,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="H2" s="18">
         <f>SUM(C3:C84)</f>
@@ -7362,13 +7362,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K1" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
@@ -7699,13 +7701,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K1" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
